--- a/Batch analysis.xlsx
+++ b/Batch analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaac\Documents\Repo Git\GitLab\SRA Software\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A79E9-3EEE-4AF0-97FD-16CAF4111275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403FB160-79A9-473B-8A7A-6D93307B4B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D2D38F4-E5D1-49A1-97A0-EF49BC19DD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Soils" sheetId="1" r:id="rId1"/>
     <sheet name="Clusters" sheetId="4" r:id="rId2"/>
+    <sheet name="Profiles" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Soil name</t>
   </si>
@@ -107,6 +108,36 @@
   </si>
   <si>
     <t>SUB2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>A;9;250</t>
+  </si>
+  <si>
+    <t>B;8;300</t>
+  </si>
+  <si>
+    <t>A;3;350</t>
+  </si>
+  <si>
+    <t>A;5</t>
+  </si>
+  <si>
+    <t>B;9</t>
+  </si>
+  <si>
+    <t>A;8</t>
+  </si>
+  <si>
+    <t>B;3</t>
   </si>
 </sst>
 </file>
@@ -484,7 +515,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +727,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -784,6 +815,82 @@
       </c>
       <c r="H3" s="3">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F31575F-4F45-4D8D-893C-5751BBD84B2E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Batch analysis.xlsx
+++ b/Batch analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaac\Documents\Repo Git\GitLab\SRA Software\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403FB160-79A9-473B-8A7A-6D93307B4B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A5284-25CD-4BB0-AA24-F90AC8A0E826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D2D38F4-E5D1-49A1-97A0-EF49BC19DD52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4D2D38F4-E5D1-49A1-97A0-EF49BC19DD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Soils" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Soil name</t>
   </si>
@@ -110,34 +104,58 @@
     <t>SUB2</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>A;9;250</t>
   </si>
   <si>
-    <t>B;8;300</t>
-  </si>
-  <si>
     <t>A;3;350</t>
   </si>
   <si>
     <t>A;5</t>
   </si>
   <si>
-    <t>B;9</t>
-  </si>
-  <si>
-    <t>A;8</t>
-  </si>
-  <si>
-    <t>B;3</t>
+    <t>G;3</t>
+  </si>
+  <si>
+    <t>G;8;300</t>
+  </si>
+  <si>
+    <t>G;9</t>
+  </si>
+  <si>
+    <t>SUB3</t>
+  </si>
+  <si>
+    <t>DH1</t>
+  </si>
+  <si>
+    <t>A;5;250</t>
+  </si>
+  <si>
+    <t>G;9;320</t>
+  </si>
+  <si>
+    <t>A;8;380</t>
+  </si>
+  <si>
+    <t>SOND1</t>
+  </si>
+  <si>
+    <t>SOND2</t>
+  </si>
+  <si>
+    <t>Spettro UHS 3.txt</t>
+  </si>
+  <si>
+    <t>S;5</t>
+  </si>
+  <si>
+    <t>A;7</t>
+  </si>
+  <si>
+    <t>G;10</t>
+  </si>
+  <si>
+    <t>DH2</t>
   </si>
 </sst>
 </file>
@@ -189,14 +207,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,10 +742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C68C1-2C36-4D1D-BFFD-EAE68761E3D7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,82 +757,108 @@
     <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>30</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
         <v>60</v>
       </c>
-      <c r="G3" s="3">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3">
-        <v>20</v>
+      <c r="G3" s="5">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -825,31 +869,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F31575F-4F45-4D8D-893C-5751BBD84B2E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -859,38 +906,50 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="D5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Batch analysis.xlsx
+++ b/Batch analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaac\Documents\Repo Git\GitLab\SRA Software\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A5284-25CD-4BB0-AA24-F90AC8A0E826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAD064-DF9E-472C-AD3D-136F249E82BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4D2D38F4-E5D1-49A1-97A0-EF49BC19DD52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D2D38F4-E5D1-49A1-97A0-EF49BC19DD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Soils" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Soil name</t>
   </si>
@@ -95,67 +95,7 @@
     <t>350; 450; 550; 650</t>
   </si>
   <si>
-    <t>Spettro UHS 2.txt; Spettro UHS 3.txt</t>
-  </si>
-  <si>
     <t>Spettro UHS 2.txt</t>
-  </si>
-  <si>
-    <t>SUB2</t>
-  </si>
-  <si>
-    <t>A;9;250</t>
-  </si>
-  <si>
-    <t>A;3;350</t>
-  </si>
-  <si>
-    <t>A;5</t>
-  </si>
-  <si>
-    <t>G;3</t>
-  </si>
-  <si>
-    <t>G;8;300</t>
-  </si>
-  <si>
-    <t>G;9</t>
-  </si>
-  <si>
-    <t>SUB3</t>
-  </si>
-  <si>
-    <t>DH1</t>
-  </si>
-  <si>
-    <t>A;5;250</t>
-  </si>
-  <si>
-    <t>G;9;320</t>
-  </si>
-  <si>
-    <t>A;8;380</t>
-  </si>
-  <si>
-    <t>SOND1</t>
-  </si>
-  <si>
-    <t>SOND2</t>
-  </si>
-  <si>
-    <t>Spettro UHS 3.txt</t>
-  </si>
-  <si>
-    <t>S;5</t>
-  </si>
-  <si>
-    <t>A;7</t>
-  </si>
-  <si>
-    <t>G;10</t>
-  </si>
-  <si>
-    <t>DH2</t>
   </si>
 </sst>
 </file>
@@ -533,7 +473,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C68C1-2C36-4D1D-BFFD-EAE68761E3D7}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,71 +734,19 @@
         <v>30</v>
       </c>
       <c r="D2" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5">
-        <v>30</v>
+        <v>33.33</v>
       </c>
       <c r="G2" s="5">
-        <v>30</v>
+        <v>33.33</v>
       </c>
       <c r="H2" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5">
-        <v>60</v>
-      </c>
-      <c r="G3" s="5">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5">
-        <v>33</v>
-      </c>
-      <c r="G4" s="5">
-        <v>33</v>
-      </c>
-      <c r="H4" s="5">
-        <v>33</v>
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>
@@ -869,10 +757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F31575F-4F45-4D8D-893C-5751BBD84B2E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,78 +769,7 @@
     <col min="2" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Batch analysis.xlsx
+++ b/Batch analysis.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaac\Documents\Repo Git\GitLab\SRA Software\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAD064-DF9E-472C-AD3D-136F249E82BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3720A3-C399-47B2-B8F2-DE4FD5B415EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D2D38F4-E5D1-49A1-97A0-EF49BC19DD52}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{4D2D38F4-E5D1-49A1-97A0-EF49BC19DD52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Soils" sheetId="1" r:id="rId1"/>
-    <sheet name="Clusters" sheetId="4" r:id="rId2"/>
-    <sheet name="Profiles" sheetId="6" r:id="rId3"/>
+    <sheet name="Stochastic" sheetId="7" r:id="rId1"/>
+    <sheet name="Soils" sheetId="1" r:id="rId2"/>
+    <sheet name="Clusters" sheetId="4" r:id="rId3"/>
+    <sheet name="Profiles" sheetId="6" r:id="rId4"/>
+    <sheet name="Voices" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,8 +28,94 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gianluca Acunzo</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F040E9E5-7AD4-4B9A-ACBF-9F39AB8FD73A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gianluca Acunzo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Set the law which relates the layer depth with its mean Vs. Use "x" as the variable for depth
+Ex.
+3*x^2 + 4*x + 9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FFFA344C-2339-4323-94C2-4DBE1381DD53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gianluca Acunzo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The inter-layer correlation law. Write an expression using "x" for the depth and "y" for the thickness of the layer. 
+If "Toro: [model]" is specified, the Toro velocity variation model is used according to the parameters of [model]. The mean value of Vs and its standard deviation are obtained from given data and not from default model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{EEA5F5C9-C08A-4F4C-B579-CCF4F14D09A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gianluca Acunzo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+If "All profile" is selected, the inter-layer correlation specified in first row will be used for the whole profile.
+If "Single groups" is selected, the correlations will be considered independently for each group.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Soil name</t>
   </si>
@@ -76,12 +164,6 @@
     <t>Vucetic &amp; Dobry, PI=0</t>
   </si>
   <si>
-    <t>IW1</t>
-  </si>
-  <si>
-    <t>SUB1</t>
-  </si>
-  <si>
     <t>Brick thickness
 [m]</t>
   </si>
@@ -95,14 +177,108 @@
     <t>350; 450; 550; 650</t>
   </si>
   <si>
+    <t>Spettro UHS 2.txt; Spettro UHS 3.txt</t>
+  </si>
+  <si>
     <t>Spettro UHS 2.txt</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>A;9;250</t>
+  </si>
+  <si>
+    <t>A;3;350</t>
+  </si>
+  <si>
+    <t>A;5</t>
+  </si>
+  <si>
+    <t>A;8</t>
+  </si>
+  <si>
+    <t>G;8;300</t>
+  </si>
+  <si>
+    <t>S;9</t>
+  </si>
+  <si>
+    <t>S;3</t>
+  </si>
+  <si>
+    <t>G;9</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>Vs Law</t>
+  </si>
+  <si>
+    <t>Vs Std</t>
+  </si>
+  <si>
+    <t>Degradation curve
+Mean</t>
+  </si>
+  <si>
+    <t>Degradation curve
+Std</t>
+  </si>
+  <si>
+    <t>Number of iterations</t>
+  </si>
+  <si>
+    <t>Min thickness
+[m]</t>
+  </si>
+  <si>
+    <t>Max thickness
+[m]</t>
+  </si>
+  <si>
+    <t>Random seed</t>
+  </si>
+  <si>
+    <t>Inter-layer correlation</t>
+  </si>
+  <si>
+    <t>Toro: USGS AB</t>
+  </si>
+  <si>
+    <t>Correlation mode</t>
+  </si>
+  <si>
+    <t>All profile</t>
+  </si>
+  <si>
+    <t>Single groups</t>
+  </si>
+  <si>
+    <t>10*x + 100</t>
+  </si>
+  <si>
+    <t>0.45*x^2 + 200</t>
+  </si>
+  <si>
+    <t>1.35^x + 250</t>
+  </si>
+  <si>
+    <t>Curve Std</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +293,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +343,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,11 +658,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4957287E-A37F-4CE2-B169-A739F2ED3546}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F68390BF-BE40-4FA6-8740-D490E73B4B13}">
+          <x14:formula1>
+            <xm:f>Voices!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73040928-DD16-4126-AE88-62A2847A455E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +847,7 @@
     <col min="6" max="6" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +866,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -517,13 +884,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -537,13 +904,13 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -554,13 +921,13 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -574,13 +941,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -594,13 +961,13 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -611,13 +978,13 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -631,13 +998,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -651,13 +1018,13 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -668,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -680,12 +1047,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C68C1-2C36-4D1D-BFFD-EAE68761E3D7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
@@ -721,32 +1088,6 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5">
-        <v>33.33</v>
-      </c>
-      <c r="G2" s="5">
-        <v>33.33</v>
-      </c>
-      <c r="H2" s="5">
-        <v>33.33</v>
       </c>
     </row>
   </sheetData>
@@ -755,22 +1096,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F31575F-4F45-4D8D-893C-5751BBD84B2E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749CBBA9-59D3-4962-B318-181DD931EBB9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>